--- a/choco/converters/validation/results/s2-03/sample_1/when-in-rome_61.xlsx
+++ b/choco/converters/validation/results/s2-03/sample_1/when-in-rome_61.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>original</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>C major:viio7</t>
-  </si>
-  <si>
-    <t>B:hdim7</t>
   </si>
   <si>
     <t>B:dim7</t>
@@ -501,12 +498,10 @@
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
